--- a/RB/2024/RB_Data_2024.xlsx
+++ b/RB/2024/RB_Data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.tangonan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157919F-5C35-4A96-B5DA-FA3A8EA1E8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EFA66F-43F7-455B-AE7D-DD84052D462A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FA02958-867E-1744-93F1-52781EB04AD2}"/>
   </bookViews>
@@ -1318,7 +1318,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1382,40 +1382,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <v>17.5</v>
+        <v>12.1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <v>57.6</v>
+        <v>60.5</v>
       </c>
       <c r="Q7">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="R7" s="1">
-        <v>0.998</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1438,40 +1438,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="E8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="L8">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>3</v>
       </c>
       <c r="P8">
-        <v>55.7</v>
+        <v>57.6</v>
       </c>
       <c r="Q8">
-        <v>18.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="R8" s="1">
-        <v>0.79900000000000004</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1494,55 +1494,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="J9">
-        <v>14</v>
-      </c>
       <c r="K9">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="L9">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9">
-        <v>54.5</v>
+        <v>55.7</v>
       </c>
       <c r="Q9">
-        <v>18.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>0.95</v>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1598,7 +1598,7 @@
         <v>18.2</v>
       </c>
       <c r="R10" s="1">
-        <v>0.94699999999999995</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1606,55 +1606,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="E11">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="F11">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K11">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>8.1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11">
-        <v>52.8</v>
+        <v>54.5</v>
       </c>
       <c r="Q11">
-        <v>17.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="R11" s="1">
-        <v>0.999</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1662,37 +1662,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="E12">
-        <v>7.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F12">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1704,13 +1704,13 @@
         <v>3</v>
       </c>
       <c r="P12">
-        <v>51.4</v>
+        <v>52.8</v>
       </c>
       <c r="Q12">
-        <v>17.100000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>0.88400000000000001</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1718,40 +1718,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="E13">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="I13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K13">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="L13">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>3</v>
       </c>
       <c r="P13">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="Q13">
         <v>17.100000000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>0.999</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1774,16 +1774,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="E14">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="F14">
         <v>24</v>
@@ -1792,22 +1792,22 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>3</v>
       </c>
       <c r="P14">
-        <v>50.4</v>
+        <v>51.3</v>
       </c>
       <c r="Q14">
-        <v>16.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1830,37 +1830,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>67</v>
+      </c>
+      <c r="D15">
+        <v>324</v>
+      </c>
+      <c r="E15">
+        <v>4.8</v>
+      </c>
+      <c r="F15">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>48</v>
-      </c>
-      <c r="D15">
-        <v>196</v>
-      </c>
-      <c r="E15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>8.1</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="P15">
-        <v>45.5</v>
+        <v>50.4</v>
       </c>
       <c r="Q15">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
       <c r="R15" s="1">
-        <v>1</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1889,13 +1889,13 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="E16">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="F16">
         <v>43</v>
@@ -1907,16 +1907,16 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="L16">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>42.5</v>
+        <v>47.3</v>
       </c>
       <c r="Q16">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="R16" s="1">
-        <v>0.85499999999999998</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1942,37 +1942,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E17">
         <v>4.0999999999999996</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K17">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="L17">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>3</v>
       </c>
       <c r="P17">
-        <v>42.2</v>
+        <v>45.5</v>
       </c>
       <c r="Q17">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="R17" s="1">
-        <v>0.95099999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1998,55 +1998,55 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F18">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L18">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>41.8</v>
+        <v>43.2</v>
       </c>
       <c r="Q18">
-        <v>20.9</v>
+        <v>14.4</v>
       </c>
       <c r="R18" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2054,40 +2054,40 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E19">
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="L19">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <v>40.9</v>
+        <v>42.2</v>
       </c>
       <c r="Q19">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="R19" s="1">
-        <v>0.59799999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2110,40 +2110,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="E20">
-        <v>4.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="F20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>67</v>
       </c>
       <c r="L20">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2152,13 +2152,13 @@
         <v>3</v>
       </c>
       <c r="P20">
-        <v>39.5</v>
+        <v>40.9</v>
       </c>
       <c r="Q20">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="R20" s="1">
-        <v>0.91400000000000003</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2166,19 +2166,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="E21">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2187,34 +2187,34 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>8.6</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>3</v>
       </c>
       <c r="P21">
-        <v>38.9</v>
+        <v>40.5</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="R21" s="1">
-        <v>0.94899999999999995</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2222,19 +2222,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2243,16 +2243,16 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K22">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="L22">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>3</v>
       </c>
       <c r="P22">
-        <v>36.299999999999997</v>
+        <v>39.5</v>
       </c>
       <c r="Q22">
-        <v>12.1</v>
+        <v>13.2</v>
       </c>
       <c r="R22" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2278,55 +2278,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="E23">
-        <v>2.2999999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K23">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="L23">
-        <v>11.4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>1</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
         <v>3</v>
       </c>
       <c r="P23">
-        <v>35.700000000000003</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="Q23">
-        <v>11.9</v>
+        <v>13.1</v>
       </c>
       <c r="R23" s="1">
-        <v>0.30299999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2334,55 +2334,55 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="E24">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
       <c r="K24">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="L24">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>34.799999999999997</v>
+        <v>38.9</v>
       </c>
       <c r="Q24">
-        <v>17.399999999999999</v>
+        <v>13</v>
       </c>
       <c r="R24" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2390,37 +2390,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>29</v>
       </c>
       <c r="D25">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K25">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>5.8</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2429,16 +2429,16 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>32.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Q25">
-        <v>16.3</v>
+        <v>12.1</v>
       </c>
       <c r="R25" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2446,37 +2446,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
         <v>134</v>
       </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>96</v>
-      </c>
       <c r="E26">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K26">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="L26">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>32.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="Q26">
-        <v>10.7</v>
+        <v>9</v>
       </c>
       <c r="R26" s="1">
-        <v>0.32</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2502,55 +2502,55 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>7</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="L27">
-        <v>7.7</v>
+        <v>11.4</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>31.9</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>11.9</v>
       </c>
       <c r="R27" s="1">
-        <v>0.95499999999999996</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2558,55 +2558,55 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="E28">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="F28">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="L28">
-        <v>8.3000000000000007</v>
+        <v>13.4</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>3</v>
       </c>
       <c r="P28">
-        <v>31.3</v>
+        <v>35.4</v>
       </c>
       <c r="Q28">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
       <c r="R28" s="1">
-        <v>0.99199999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2614,55 +2614,55 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="E29">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="F29">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>44</v>
+      </c>
+      <c r="L29">
+        <v>7.3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>2</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>7</v>
-      </c>
-      <c r="J29">
-        <v>9</v>
-      </c>
-      <c r="K29">
-        <v>30</v>
-      </c>
-      <c r="L29">
-        <v>4.3</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>3</v>
-      </c>
       <c r="P29">
-        <v>30.9</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Q29">
-        <v>10.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R29" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.98599999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2670,40 +2670,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
         <v>19</v>
       </c>
-      <c r="C30">
-        <v>31</v>
-      </c>
       <c r="D30">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E30">
-        <v>2.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="L30">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <v>28.4</v>
+        <v>32.1</v>
       </c>
       <c r="Q30">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="R30" s="1">
-        <v>0.97199999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2726,55 +2726,55 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E31">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
       <c r="I31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K31">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>2</v>
       </c>
       <c r="P31">
-        <v>26.7</v>
+        <v>31.9</v>
       </c>
       <c r="Q31">
-        <v>13.4</v>
+        <v>16</v>
       </c>
       <c r="R31" s="1">
-        <v>0.99299999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2782,55 +2782,55 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D32">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
         <v>4</v>
       </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
       <c r="K32">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L32">
-        <v>9.3000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
       <c r="O32">
         <v>3</v>
       </c>
       <c r="P32">
-        <v>24.2</v>
+        <v>31.3</v>
       </c>
       <c r="Q32">
-        <v>8.1</v>
+        <v>10.4</v>
       </c>
       <c r="R32" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2838,37 +2838,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="E33">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K33">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="L33">
-        <v>8.3000000000000007</v>
+        <v>4.3</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2880,13 +2880,13 @@
         <v>3</v>
       </c>
       <c r="P33">
-        <v>24.1</v>
+        <v>30.9</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="R33" s="1">
-        <v>0.113</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2894,37 +2894,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="E34">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="F34">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="L34">
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         <v>3</v>
       </c>
       <c r="P34">
-        <v>23.2</v>
+        <v>28.4</v>
       </c>
       <c r="Q34">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="R34" s="1">
-        <v>0.33900000000000002</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2950,19 +2950,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E35">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2971,19 +2971,19 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L35">
-        <v>7.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>3</v>
       </c>
       <c r="P35">
-        <v>22.7</v>
+        <v>24.2</v>
       </c>
       <c r="Q35">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="R35" s="1">
-        <v>0.39700000000000002</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3006,19 +3006,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3030,13 +3030,13 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K36">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L36">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>3</v>
       </c>
       <c r="P36">
-        <v>22.4</v>
+        <v>24.1</v>
       </c>
       <c r="Q36">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="R36" s="1">
-        <v>0.69699999999999995</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3062,37 +3062,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E37">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K37">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="L37">
-        <v>14.1</v>
+        <v>6</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3101,16 +3101,16 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>21.7</v>
+        <v>23.7</v>
       </c>
       <c r="Q37">
-        <v>10.9</v>
+        <v>5.9</v>
       </c>
       <c r="R37" s="1">
-        <v>0.80900000000000005</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3118,55 +3118,55 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="E38">
-        <v>2.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K38">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="L38">
+        <v>5.6</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>23.2</v>
+      </c>
+      <c r="Q38">
         <v>7.7</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>20.9</v>
-      </c>
-      <c r="Q38">
-        <v>7</v>
-      </c>
       <c r="R38" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3174,37 +3174,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E39">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="L39">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3216,13 +3216,13 @@
         <v>3</v>
       </c>
       <c r="P39">
-        <v>20.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q39">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="R39" s="1">
-        <v>0.72399999999999998</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3230,55 +3230,55 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E40">
-        <v>3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>77</v>
+      </c>
+      <c r="L40">
+        <v>7.7</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
-      </c>
-      <c r="K40">
-        <v>30</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
       <c r="O40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q40">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="R40" s="1">
-        <v>0.84099999999999997</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3334,7 +3334,7 @@
         <v>6.6</v>
       </c>
       <c r="R41" s="1">
-        <v>0.249</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3390,7 +3390,7 @@
         <v>6.5</v>
       </c>
       <c r="R42" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3446,7 +3446,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="R43" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3510,41 +3510,41 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>61</v>
+      </c>
+      <c r="L45">
+        <v>15.3</v>
+      </c>
+      <c r="M45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45">
-        <v>13</v>
-      </c>
-      <c r="L45">
-        <v>6.5</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
         <v>0</v>
       </c>
@@ -3552,13 +3552,13 @@
         <v>3</v>
       </c>
       <c r="P45">
-        <v>16.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="Q45">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="R45" s="1">
-        <v>7.8E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3566,37 +3566,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E46">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="F46">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K46">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L46">
-        <v>8.3000000000000007</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3608,13 +3608,13 @@
         <v>3</v>
       </c>
       <c r="P46">
-        <v>16.7</v>
+        <v>17.3</v>
       </c>
       <c r="Q46">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="R46" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3622,19 +3622,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E47">
-        <v>2.2000000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="F47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3643,34 +3643,34 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K47">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L47">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>3</v>
       </c>
       <c r="P47">
-        <v>14.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Q47">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="R47" s="1">
-        <v>0.312</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3678,55 +3678,55 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E48">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>3</v>
       </c>
       <c r="P48">
-        <v>14.8</v>
+        <v>16.8</v>
       </c>
       <c r="Q48">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="R48" s="1">
-        <v>0.85199999999999998</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3734,55 +3734,55 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E49">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L49">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>16.7</v>
+      </c>
+      <c r="Q49">
         <v>5.6</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>13.2</v>
-      </c>
-      <c r="Q49">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="R49" s="1">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3790,16 +3790,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>5.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F50">
         <v>15</v>
@@ -3808,37 +3808,37 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>1.3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>12</v>
-      </c>
-      <c r="L50">
-        <v>12</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
       <c r="O50">
         <v>3</v>
       </c>
       <c r="P50">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="Q50">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R50" s="1">
-        <v>0.34499999999999997</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3846,19 +3846,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3867,34 +3867,34 @@
         <v>0</v>
       </c>
       <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
         <v>6</v>
       </c>
-      <c r="J51">
-        <v>9</v>
-      </c>
       <c r="K51">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="L51">
-        <v>10.8</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>3</v>
       </c>
       <c r="P51">
-        <v>12.5</v>
+        <v>14.8</v>
       </c>
       <c r="Q51">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R51" s="1">
-        <v>1.4E-2</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3902,19 +3902,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3923,34 +3923,34 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>73</v>
+      </c>
+      <c r="L52">
+        <v>12.2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="K52">
-        <v>11</v>
-      </c>
-      <c r="L52">
-        <v>5.5</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>2</v>
-      </c>
       <c r="P52">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="Q52">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="R52" s="1">
-        <v>0.40500000000000003</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3958,19 +3958,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E53">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -4000,13 +4000,13 @@
         <v>3</v>
       </c>
       <c r="P53">
-        <v>10.6</v>
+        <v>13.2</v>
       </c>
       <c r="Q53">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R53" s="1">
-        <v>0.58699999999999997</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4014,19 +4014,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E54">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L54">
-        <v>10.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>3</v>
       </c>
       <c r="P54">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="Q54">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="R54" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4070,55 +4070,55 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>6</v>
       </c>
-      <c r="D55">
-        <v>25</v>
-      </c>
-      <c r="E55">
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>65</v>
+      </c>
+      <c r="L55">
+        <v>10.8</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>12.5</v>
+      </c>
+      <c r="Q55">
         <v>4.2</v>
       </c>
-      <c r="F55">
-        <v>9</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>5</v>
-      </c>
-      <c r="J55">
-        <v>7</v>
-      </c>
-      <c r="K55">
-        <v>28</v>
-      </c>
-      <c r="L55">
-        <v>5.6</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-      <c r="P55">
-        <v>10.3</v>
-      </c>
-      <c r="Q55">
-        <v>3.4</v>
-      </c>
       <c r="R55" s="1">
-        <v>0.30499999999999999</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4126,19 +4126,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E56">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4147,34 +4147,34 @@
         <v>0</v>
       </c>
       <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
         <v>4</v>
       </c>
-      <c r="J56">
-        <v>5</v>
-      </c>
       <c r="K56">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56">
-        <v>10.199999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="Q56">
-        <v>10.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="R56" s="1">
-        <v>1.4E-2</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4182,16 +4182,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -4200,37 +4200,37 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K57">
+        <v>41</v>
+      </c>
+      <c r="L57">
+        <v>10.3</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
       <c r="P57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q57">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="R57" s="1">
-        <v>0.14199999999999999</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4238,38 +4238,38 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D58">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E58">
-        <v>13.3</v>
+        <v>2.9</v>
       </c>
       <c r="F58">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <v>2</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>2</v>
       </c>
-      <c r="K58">
-        <v>26</v>
-      </c>
-      <c r="L58">
-        <v>13</v>
-      </c>
       <c r="M58">
         <v>0</v>
       </c>
@@ -4280,13 +4280,13 @@
         <v>3</v>
       </c>
       <c r="P58">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="Q58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R58" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4294,19 +4294,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4315,16 +4315,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J59">
         <v>5</v>
       </c>
       <c r="K59">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L59">
-        <v>14.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4336,13 +4336,13 @@
         <v>3</v>
       </c>
       <c r="P59">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="Q59">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R59" s="1">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4350,37 +4350,37 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="F60">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4389,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>9.8000000000000007</v>
+        <v>10.3</v>
       </c>
       <c r="Q60">
-        <v>4.9000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4406,19 +4406,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E61">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4427,16 +4427,16 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61">
         <v>5</v>
       </c>
       <c r="K61">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4445,16 +4445,16 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>9.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Q61">
-        <v>3.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R61" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4462,19 +4462,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>16</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>3</v>
       </c>
       <c r="P62">
-        <v>9.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="Q62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R62" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4518,55 +4518,55 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E63">
-        <v>3.8</v>
+        <v>13.3</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>2</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>3</v>
       </c>
       <c r="P63">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R63" s="1">
-        <v>0.60399999999999998</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4574,37 +4574,37 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4616,13 +4616,13 @@
         <v>2</v>
       </c>
       <c r="P64">
-        <v>8.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q64">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R64" s="1">
-        <v>0.59899999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4630,19 +4630,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E65">
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4657,10 +4657,10 @@
         <v>5</v>
       </c>
       <c r="K65">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L65">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>3</v>
       </c>
       <c r="P65">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="Q65">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="R65" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4686,37 +4686,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L66">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4725,16 +4725,16 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>7.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q66">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="R66" s="1">
-        <v>0.108</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4742,55 +4742,55 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E67">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="F67">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="Q67">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="R67" s="1">
-        <v>0.125</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4798,37 +4798,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4840,13 +4840,13 @@
         <v>3</v>
       </c>
       <c r="P68">
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q68">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R68" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4854,19 +4854,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E69">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4875,16 +4875,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>3</v>
       </c>
       <c r="P69">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="Q69">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="R69" s="1">
-        <v>0.129</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4910,19 +4910,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E70">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4931,16 +4931,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q70">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R70" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4966,16 +4966,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -4987,34 +4987,34 @@
         <v>0</v>
       </c>
       <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>30</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
         <v>2</v>
       </c>
-      <c r="J71">
-        <v>2</v>
-      </c>
-      <c r="K71">
-        <v>12</v>
-      </c>
-      <c r="L71">
-        <v>6</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>3</v>
-      </c>
       <c r="P71">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="R71" s="1">
-        <v>0.38</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5022,19 +5022,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -5043,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -5064,13 +5064,13 @@
         <v>3</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R72" s="1">
-        <v>1E-3</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5078,19 +5078,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -5099,16 +5099,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="R73" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5134,16 +5134,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="F74">
         <v>4</v>
@@ -5155,16 +5155,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74">
         <v>4</v>
       </c>
       <c r="K74">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>3</v>
       </c>
       <c r="P74">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R74" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5190,19 +5190,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -5211,16 +5211,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75">
         <v>4</v>
       </c>
       <c r="K75">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L75">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5232,13 +5232,13 @@
         <v>3</v>
       </c>
       <c r="P75">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
       </c>
       <c r="R75" s="1">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5246,37 +5246,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
         <v>4</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
       <c r="K76">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L76">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>1.8</v>
       </c>
       <c r="R76" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5302,37 +5302,37 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E77">
+        <v>2.9</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>2</v>
       </c>
-      <c r="F77">
-        <v>6</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77">
         <v>3</v>
       </c>
       <c r="K77">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L77">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -5341,16 +5341,16 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="Q77">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="R77" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5406,7 +5406,7 @@
         <v>3.9</v>
       </c>
       <c r="R78" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5414,19 +5414,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E79">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -5453,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P79">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q79">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="R79" s="1">
         <v>3.0000000000000001E-3</v>
@@ -5470,19 +5470,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -5497,10 +5497,10 @@
         <v>1</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5509,16 +5509,16 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="R80" s="1">
-        <v>0.1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5574,7 +5574,7 @@
         <v>1.4</v>
       </c>
       <c r="R81" s="1">
-        <v>0.33900000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5582,19 +5582,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -5609,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5621,16 +5621,16 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P82">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q82">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="R82" s="1">
-        <v>1E-3</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5638,19 +5638,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5659,16 +5659,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5677,16 +5677,16 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q83">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="R83" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5733,13 +5733,13 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P84">
         <v>2.4</v>
       </c>
       <c r="Q84">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="R84" s="1">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="R86" s="1">
-        <v>0.14899999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6022,7 +6022,7 @@
         <v>1.6</v>
       </c>
       <c r="R89" s="1">
-        <v>3.1E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6142,19 +6142,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -6163,34 +6163,34 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
         <v>1</v>
-      </c>
-      <c r="O92">
-        <v>3</v>
       </c>
       <c r="P92">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q92">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R92" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6198,55 +6198,55 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
         <v>11</v>
       </c>
-      <c r="E93">
-        <v>3.7</v>
-      </c>
-      <c r="F93">
-        <v>6</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
       <c r="L93">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P93">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q93">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="R93" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6254,16 +6254,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94">
         <v>11</v>
       </c>
       <c r="E94">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -6293,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P94">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q94">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -6310,19 +6310,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>11</v>
       </c>
       <c r="E95">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P95">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q95">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R95" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6478,55 +6478,55 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>1.8</v>
+      </c>
+      <c r="F98">
         <v>6</v>
       </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <v>9</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
         <v>4</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
       </c>
       <c r="P98">
         <v>0.6</v>
       </c>
       <c r="Q98">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="R98" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6534,7 +6534,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -6546,7 +6546,7 @@
         <v>2</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -6555,34 +6555,34 @@
         <v>0</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>9</v>
-      </c>
-      <c r="L99">
-        <v>9</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>3</v>
-      </c>
       <c r="P99">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q99">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="R99" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6758,19 +6758,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -6797,16 +6797,16 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6814,7 +6814,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="R105" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6926,7 +6926,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="R106" s="1">
-        <v>5.5E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6982,7 +6982,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="R107" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7038,7 +7038,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="R108" s="1">
-        <v>2E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7094,7 +7094,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="R109" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7150,7 +7150,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="R110" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7206,7 +7206,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="R111" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7262,7 +7262,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -7430,7 +7430,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="R117" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7598,7 +7598,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="R118" s="1">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7654,7 +7654,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -7758,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7766,7 +7766,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="R121" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7822,7 +7822,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7878,7 +7878,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>1E-3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7934,7 +7934,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="R124" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7990,7 +7990,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="R127" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8158,7 +8158,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="R128" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8214,7 +8214,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8270,7 +8270,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R130" s="1">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8326,7 +8326,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8382,7 +8382,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="R132" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8438,7 +8438,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -8606,7 +8606,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8774,7 +8774,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="1">
-        <v>0.65500000000000003</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8830,7 +8830,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="1">
-        <v>0</v>
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8886,7 +8886,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -9054,7 +9054,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -9278,7 +9278,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -9334,7 +9334,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -9446,7 +9446,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="R151" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9502,7 +9502,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -9614,7 +9614,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="R154" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9670,7 +9670,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="R155" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9726,7 +9726,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="R156" s="1">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9782,7 +9782,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -9838,7 +9838,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -9894,7 +9894,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="R159" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9950,7 +9950,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="R160" s="1">
-        <v>1.4E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -10006,7 +10006,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="R161" s="1">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -10062,7 +10062,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="R163" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -10174,7 +10174,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="R165" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10286,7 +10286,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="R166" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10342,7 +10342,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="R167" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10398,19 +10398,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -10419,25 +10419,25 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>1</v>
       </c>
       <c r="K168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M168">
         <v>0</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="R168" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10454,19 +10454,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -10475,25 +10475,25 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10510,7 +10510,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -10566,7 +10566,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="O171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="R171" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10622,7 +10622,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -10678,7 +10678,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="O173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -10734,7 +10734,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="R175" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10846,7 +10846,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="R176" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10902,7 +10902,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="R177" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10958,7 +10958,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -11126,7 +11126,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -11182,7 +11182,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -11350,7 +11350,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -11406,7 +11406,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -11462,7 +11462,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="O188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="R188" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="R189" s="1">
-        <v>0.27</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="R190" s="1">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="R191" s="1">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11846,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="R193" s="1">
-        <v>0.77500000000000002</v>
+        <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11949,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P195">
         <v>0</v>

--- a/RB/2024/RB_Data_2024.xlsx
+++ b/RB/2024/RB_Data_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.tangonan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claritypartners-my.sharepoint.com/personal/m_tangonan_claritypartners_com/Documents/Personal/Fantasy Football/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EFA66F-43F7-455B-AE7D-DD84052D462A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EA342FA0-A46A-4B10-8C1D-F8E017AEA6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFADA74F-3F9D-47B5-A5B0-44DAB87A0B15}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FA02958-867E-1744-93F1-52781EB04AD2}"/>
+    <workbookView xWindow="-13815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5FA02958-867E-1744-93F1-52781EB04AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="217">
   <si>
     <t>Rank</t>
   </si>
@@ -419,9 +419,6 @@
     <t>Kenny McIntosh (SEA)</t>
   </si>
   <si>
-    <t>Jack Colletto (PIT)</t>
-  </si>
-  <si>
     <t>Carlos Washington Jr. (ATL)</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>Michael Wiley (WAS)</t>
   </si>
   <si>
-    <t>Jacob Kibodi (NO)</t>
-  </si>
-  <si>
     <t>Kimani Vidal (LAC)</t>
   </si>
   <si>
@@ -476,9 +470,6 @@
     <t>Dylan Laube (LV)</t>
   </si>
   <si>
-    <t>Jalen Jackson (JAC)</t>
-  </si>
-  <si>
     <t>British Brooks (HOU)</t>
   </si>
   <si>
@@ -665,9 +656,6 @@
     <t>Velus Jones Jr. (CHI)</t>
   </si>
   <si>
-    <t>Gary Brightwell (CLE)</t>
-  </si>
-  <si>
     <t>Kene Nwangwu (NYJ)</t>
   </si>
   <si>
@@ -683,7 +671,22 @@
     <t>Royce Freeman (CLE)</t>
   </si>
   <si>
-    <t>John Kelly Jr. (BAL)</t>
+    <t>La'Mical Perine (PIT)</t>
+  </si>
+  <si>
+    <t>Salvon Ahmed (DEN)</t>
+  </si>
+  <si>
+    <t>Trent Pennix (IND)</t>
+  </si>
+  <si>
+    <t>Jake Funk (JAC)</t>
+  </si>
+  <si>
+    <t>Gary Brightwell (FA)</t>
+  </si>
+  <si>
+    <t>John Kelly Jr. (FA)</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A61CA6-BD19-474E-A424-3BED59C58A61}">
-  <dimension ref="A1:R201"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,37 +1105,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E2">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="F2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="L2">
-        <v>5.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1141,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>84.4</v>
+        <v>106.6</v>
       </c>
       <c r="Q2">
-        <v>28.1</v>
+        <v>26.7</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1158,37 +1161,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>285</v>
+        <v>435</v>
       </c>
       <c r="E3">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="L3">
-        <v>13.2</v>
+        <v>7.1</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1197,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>81.7</v>
+        <v>98</v>
       </c>
       <c r="Q3">
-        <v>27.2</v>
+        <v>24.5</v>
       </c>
       <c r="R3" s="1">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1214,37 +1217,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="E4">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>10.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1253,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>61.3</v>
+        <v>93.5</v>
       </c>
       <c r="Q4">
-        <v>20.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="R4" s="1">
-        <v>0.995</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1273,34 +1276,34 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
       <c r="J5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L5">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1309,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>61.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="Q5">
         <v>20.399999999999999</v>
@@ -1326,55 +1329,55 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="E6">
-        <v>3.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="L6">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>61</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="Q6">
-        <v>20.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1382,55 +1385,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="E7">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F7">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="L7">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>60.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="Q7">
-        <v>20.2</v>
+        <v>18.2</v>
       </c>
       <c r="R7" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1438,55 +1441,55 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>143</v>
+      </c>
+      <c r="L8">
+        <v>8.9</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>4</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>35</v>
-      </c>
-      <c r="L8">
-        <v>17.5</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
       <c r="P8">
-        <v>57.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="Q8">
-        <v>19.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>0.999</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1494,37 +1497,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="E9">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9">
         <v>76</v>
       </c>
       <c r="L9">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1533,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>55.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="Q9">
-        <v>18.600000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="R9" s="1">
-        <v>0.79800000000000004</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1553,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="E10">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F10">
         <v>21</v>
@@ -1568,19 +1571,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L10">
-        <v>6.8</v>
+        <v>10.4</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1589,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>54.5</v>
+        <v>69.5</v>
       </c>
       <c r="Q10">
-        <v>18.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R10" s="1">
         <v>0.95</v>
@@ -1606,55 +1609,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="E11">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="L11">
-        <v>8.1</v>
+        <v>9.4</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>54.5</v>
+        <v>67.2</v>
       </c>
       <c r="Q11">
-        <v>18.2</v>
+        <v>16.8</v>
       </c>
       <c r="R11" s="1">
-        <v>0.96299999999999997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1662,55 +1665,55 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="E12">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F12">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>11.8</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>52.8</v>
+        <v>66.3</v>
       </c>
       <c r="Q12">
-        <v>17.600000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>0.999</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1718,55 +1721,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>42</v>
       </c>
       <c r="D13">
-        <v>310</v>
+        <v>156</v>
       </c>
       <c r="E13">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="F13">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K13">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>51.4</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="Q13">
-        <v>17.100000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="R13" s="1">
-        <v>0.88900000000000001</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1774,55 +1777,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E14">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
         <v>24</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
       <c r="K14">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="L14">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>51.3</v>
+        <v>64.8</v>
       </c>
       <c r="Q14">
-        <v>17.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="R14" s="1">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1830,55 +1833,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E15">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>68</v>
+      </c>
+      <c r="L15">
+        <v>8.5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
       <c r="P15">
-        <v>50.4</v>
+        <v>63.5</v>
       </c>
       <c r="Q15">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="R15" s="1">
-        <v>0.93300000000000005</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1886,55 +1889,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="E16">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="F16">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L16">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>4</v>
       </c>
       <c r="P16">
-        <v>47.3</v>
+        <v>63</v>
       </c>
       <c r="Q16">
-        <v>11.8</v>
+        <v>15.8</v>
       </c>
       <c r="R16" s="1">
-        <v>0.87</v>
+        <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1942,37 +1945,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="E17">
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
         <v>11</v>
       </c>
-      <c r="J17">
-        <v>12</v>
-      </c>
       <c r="K17">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="L17">
-        <v>8.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1981,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>45.5</v>
+        <v>60.6</v>
       </c>
       <c r="Q17">
         <v>15.2</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1998,37 +2001,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="E18">
         <v>4.5999999999999996</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L18">
-        <v>11.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2037,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>43.2</v>
+        <v>60.5</v>
       </c>
       <c r="Q18">
-        <v>14.4</v>
+        <v>15.1</v>
       </c>
       <c r="R18" s="1">
-        <v>0.91800000000000004</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2054,19 +2057,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E19">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2075,16 +2078,16 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K19">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="L19">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2093,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>42.2</v>
+        <v>58.3</v>
       </c>
       <c r="Q19">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="R19" s="1">
-        <v>0.95199999999999996</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2110,37 +2113,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E20">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K20">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="L20">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2149,16 +2152,16 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>40.9</v>
+        <v>58.3</v>
       </c>
       <c r="Q20">
-        <v>13.6</v>
+        <v>14.6</v>
       </c>
       <c r="R20" s="1">
-        <v>0.77200000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2166,37 +2169,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="E21">
         <v>4.0999999999999996</v>
       </c>
       <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
         <v>16</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>8</v>
-      </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
       <c r="K21">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="L21">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2205,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>40.5</v>
+        <v>56.9</v>
       </c>
       <c r="Q21">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="R21" s="1">
-        <v>0.86199999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2222,37 +2225,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="E22">
-        <v>4.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L22">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2261,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>39.5</v>
+        <v>52.5</v>
       </c>
       <c r="Q22">
-        <v>13.2</v>
+        <v>26.3</v>
       </c>
       <c r="R22" s="1">
-        <v>0.91400000000000003</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2278,55 +2281,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>203</v>
+      </c>
+      <c r="E23">
+        <v>5.2</v>
+      </c>
+      <c r="F23">
         <v>36</v>
-      </c>
-      <c r="D23">
-        <v>164</v>
-      </c>
-      <c r="E23">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F23">
-        <v>22</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>85</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>51.8</v>
+      </c>
+      <c r="Q23">
         <v>13</v>
       </c>
-      <c r="K23">
-        <v>38</v>
-      </c>
-      <c r="L23">
-        <v>4.2</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="Q23">
-        <v>13.1</v>
-      </c>
       <c r="R23" s="1">
-        <v>0.99299999999999999</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2334,55 +2337,55 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="E24">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K24">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>9.1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>38.9</v>
+        <v>48.9</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="R24" s="1">
-        <v>0.94099999999999995</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2390,55 +2393,55 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K25">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="L25">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>36.299999999999997</v>
+        <v>47.3</v>
       </c>
       <c r="Q25">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="R25" s="1">
-        <v>0.82899999999999996</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2446,55 +2449,55 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="E26">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>9</v>
       </c>
       <c r="J26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="L26">
-        <v>8.1999999999999993</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>35.799999999999997</v>
+        <v>47.1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="R26" s="1">
-        <v>0.45700000000000002</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2502,55 +2505,55 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="E27">
-        <v>2.2999999999999998</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K27">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="L27">
-        <v>11.4</v>
+        <v>4.8</v>
       </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>1</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
       <c r="O27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>35.700000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="Q27">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="R27" s="1">
-        <v>0.32</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2558,55 +2561,55 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E28">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>161</v>
+      </c>
+      <c r="L28">
+        <v>10.1</v>
+      </c>
+      <c r="M28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28">
-        <v>9</v>
-      </c>
-      <c r="K28">
-        <v>121</v>
-      </c>
-      <c r="L28">
-        <v>13.4</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>35.4</v>
+        <v>45.7</v>
       </c>
       <c r="Q28">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="R28" s="1">
-        <v>0.78</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2614,55 +2617,55 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="E29">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>52</v>
+      </c>
+      <c r="L29">
+        <v>7.4</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <v>44</v>
-      </c>
-      <c r="L29">
-        <v>7.3</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
       <c r="O29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>34.799999999999997</v>
+        <v>43.1</v>
       </c>
       <c r="Q29">
-        <v>17.399999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="R29" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2670,37 +2673,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E30">
         <v>5.0999999999999996</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="L30">
-        <v>7.5</v>
+        <v>11.4</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2709,16 +2712,16 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>32.1</v>
+        <v>41.7</v>
       </c>
       <c r="Q30">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="R30" s="1">
-        <v>0.47399999999999998</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2726,55 +2729,55 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="E31">
+        <v>3.4</v>
+      </c>
+      <c r="F31">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>84</v>
+      </c>
+      <c r="L31">
+        <v>8.4</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>7</v>
-      </c>
-      <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="K31">
-        <v>54</v>
-      </c>
-      <c r="L31">
-        <v>7.7</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
       <c r="P31">
-        <v>31.9</v>
+        <v>41.2</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>10.3</v>
       </c>
       <c r="R31" s="1">
-        <v>0.94099999999999995</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2782,55 +2785,55 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="E32">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="F32">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>4</v>
       </c>
-      <c r="K32">
-        <v>25</v>
-      </c>
-      <c r="L32">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>3</v>
-      </c>
       <c r="P32">
-        <v>31.3</v>
+        <v>40.5</v>
       </c>
       <c r="Q32">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="R32" s="1">
-        <v>0.99</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2838,37 +2841,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="E33">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K33">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="L33">
-        <v>4.3</v>
+        <v>9.5</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2877,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>30.9</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Q33">
-        <v>10.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R33" s="1">
-        <v>0.90500000000000003</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2894,55 +2897,55 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E34">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K34">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="L34">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>28.4</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="Q34">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="R34" s="1">
-        <v>0.95599999999999996</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2950,19 +2953,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2971,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K35">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="L35">
-        <v>9.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2989,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>24.2</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="Q35">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="R35" s="1">
-        <v>0.10299999999999999</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3006,37 +3009,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="E36">
         <v>5.8</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K36">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="L36">
-        <v>8.3000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3045,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>24.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="R36" s="1">
-        <v>0.114</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3062,37 +3065,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>83</v>
+      </c>
+      <c r="E37">
+        <v>6.4</v>
+      </c>
+      <c r="F37">
         <v>24</v>
       </c>
-      <c r="D37">
-        <v>81</v>
-      </c>
-      <c r="E37">
-        <v>3.4</v>
-      </c>
-      <c r="F37">
-        <v>9</v>
-      </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>13.4</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3101,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>23.7</v>
+        <v>35.4</v>
       </c>
       <c r="Q37">
-        <v>5.9</v>
+        <v>11.8</v>
       </c>
       <c r="R37" s="1">
-        <v>0.63200000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3118,55 +3121,55 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="E38">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="F38">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>44</v>
+      </c>
+      <c r="L38">
+        <v>7.3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>2</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>6</v>
-      </c>
-      <c r="K38">
-        <v>28</v>
-      </c>
-      <c r="L38">
-        <v>5.6</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
       <c r="P38">
-        <v>23.2</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Q38">
-        <v>7.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R38" s="1">
-        <v>0.51200000000000001</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3177,13 +3180,13 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="F39">
         <v>11</v>
@@ -3192,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K39">
         <v>76</v>
       </c>
       <c r="L39">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3213,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>22.4</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Q39">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="R39" s="1">
-        <v>0.67500000000000004</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3230,34 +3233,34 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="E40">
-        <v>2.2000000000000002</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K40">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L40">
         <v>7.7</v>
@@ -3266,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P40">
-        <v>20.9</v>
+        <v>31.9</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="R40" s="1">
-        <v>0.76900000000000002</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3286,55 +3289,55 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E41">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="F41">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>80</v>
+      </c>
+      <c r="L41">
+        <v>6.7</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="J41">
-        <v>4</v>
-      </c>
-      <c r="K41">
-        <v>15</v>
-      </c>
-      <c r="L41">
-        <v>3.8</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>3</v>
-      </c>
       <c r="P41">
-        <v>19.8</v>
+        <v>30.9</v>
       </c>
       <c r="Q41">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="R41" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3342,19 +3345,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="E42">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="F42">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3363,34 +3366,34 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K42">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="L42">
+        <v>11.7</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="P42">
+        <v>30.7</v>
+      </c>
+      <c r="Q42">
         <v>7.7</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="Q42">
-        <v>6.5</v>
-      </c>
       <c r="R42" s="1">
-        <v>0.873</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3398,55 +3401,55 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E43">
-        <v>5.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F43">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>37</v>
+      </c>
+      <c r="L43">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M43">
         <v>1</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43">
-        <v>6</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>18.899999999999999</v>
+        <v>26.9</v>
       </c>
       <c r="Q43">
-        <v>18.899999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="R43" s="1">
-        <v>0.96099999999999997</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3457,16 +3460,16 @@
         <v>65</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E44">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3475,16 +3478,16 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K44">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3493,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>18.7</v>
+        <v>26.3</v>
       </c>
       <c r="Q44">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="R44" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3510,20 +3513,20 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>2.5</v>
+      </c>
+      <c r="F45">
         <v>6</v>
       </c>
-      <c r="D45">
-        <v>24</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <v>18</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -3531,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K45">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="L45">
-        <v>15.3</v>
+        <v>10.9</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -3549,16 +3552,16 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>18.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q45">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="R45" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3566,55 +3569,55 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>6</v>
       </c>
       <c r="K46">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>15.3</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>17.3</v>
+        <v>24.8</v>
       </c>
       <c r="Q46">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="R46" s="1">
-        <v>0.58199999999999996</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3622,19 +3625,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E47">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3643,34 +3646,34 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>36</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="K47">
-        <v>13</v>
-      </c>
-      <c r="L47">
-        <v>6.5</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
       <c r="P47">
-        <v>16.899999999999999</v>
+        <v>23.7</v>
       </c>
       <c r="Q47">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="R47" s="1">
-        <v>7.5999999999999998E-2</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3678,25 +3681,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="E48">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -3705,10 +3708,10 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L48">
-        <v>4.7</v>
+        <v>10.7</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>16.8</v>
+        <v>22.8</v>
       </c>
       <c r="Q48">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="R48" s="1">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3734,37 +3737,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E49">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="F49">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>1</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K49">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>8.3000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3773,16 +3776,16 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>16.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q49">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="R49" s="1">
-        <v>0.39</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3790,55 +3793,55 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E50">
-        <v>2.2000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
         <v>6</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>6</v>
       </c>
-      <c r="K50">
-        <v>8</v>
-      </c>
-      <c r="L50">
-        <v>1.3</v>
-      </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>14.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q50">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R50" s="1">
-        <v>0.27500000000000002</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3846,37 +3849,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E51">
         <v>3.2</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K51">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3885,16 +3888,16 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>14.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Q51">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R51" s="1">
-        <v>0.78100000000000003</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3902,37 +3905,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E52">
+        <v>4.2</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>4</v>
       </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>6</v>
-      </c>
       <c r="J52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K52">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L52">
-        <v>12.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3944,13 +3947,13 @@
         <v>4</v>
       </c>
       <c r="P52">
-        <v>14.1</v>
+        <v>19</v>
       </c>
       <c r="Q52">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="R52" s="1">
-        <v>1E-3</v>
+        <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3958,37 +3961,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E53">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="F53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L53">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3997,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P53">
-        <v>13.2</v>
+        <v>18.8</v>
       </c>
       <c r="Q53">
-        <v>4.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="R53" s="1">
-        <v>0.65100000000000002</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4014,37 +4017,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4053,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54">
-        <v>12.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="Q54">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="R54" s="1">
-        <v>0.32800000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4070,19 +4073,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4091,34 +4094,34 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K55">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="L55">
-        <v>10.8</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>12.5</v>
+        <v>17.8</v>
       </c>
       <c r="Q55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R55" s="1">
-        <v>1.2E-2</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4126,19 +4129,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E56">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4165,16 +4168,16 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>12.4</v>
+        <v>17.7</v>
       </c>
       <c r="Q56">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="R56" s="1">
-        <v>0.35699999999999998</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4182,37 +4185,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E57">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K57">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L57">
-        <v>10.3</v>
+        <v>5.6</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4224,13 +4227,13 @@
         <v>4</v>
       </c>
       <c r="P57">
-        <v>11</v>
+        <v>17.7</v>
       </c>
       <c r="Q57">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R57" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4238,19 +4241,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4259,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -4277,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>10.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Q58">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R58" s="1">
-        <v>0.50700000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4294,37 +4297,37 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D59">
+        <v>172</v>
+      </c>
+      <c r="E59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59">
         <v>3</v>
       </c>
-      <c r="E59">
-        <v>1.5</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4333,16 +4336,16 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>10.4</v>
+        <v>17.2</v>
       </c>
       <c r="Q59">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="R59" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4350,19 +4353,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -4371,16 +4374,16 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K60">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="L60">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4389,16 +4392,16 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>10.3</v>
+        <v>14.7</v>
       </c>
       <c r="Q60">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="R60" s="1">
-        <v>0.22500000000000001</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4406,19 +4409,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
         <v>8</v>
       </c>
-      <c r="D61">
-        <v>30</v>
-      </c>
       <c r="E61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -4427,34 +4430,34 @@
         <v>0</v>
       </c>
       <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>73</v>
+      </c>
+      <c r="L61">
+        <v>12.2</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <v>4</v>
       </c>
-      <c r="J61">
-        <v>5</v>
-      </c>
-      <c r="K61">
-        <v>32</v>
-      </c>
-      <c r="L61">
-        <v>8</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
       <c r="P61">
-        <v>10.199999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="Q61">
-        <v>10.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="R61" s="1">
-        <v>0.16200000000000001</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4462,55 +4465,55 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>8</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>9.6</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62">
+        <v>26</v>
+      </c>
+      <c r="L62">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="L62">
-        <v>2</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>3</v>
-      </c>
       <c r="P62">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="Q62">
         <v>3.3</v>
       </c>
       <c r="R62" s="1">
-        <v>0.125</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4518,37 +4521,37 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D63">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E63">
-        <v>13.3</v>
+        <v>3.9</v>
       </c>
       <c r="F63">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4560,13 +4563,13 @@
         <v>3</v>
       </c>
       <c r="P63">
-        <v>9.9</v>
+        <v>13.2</v>
       </c>
       <c r="Q63">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R63" s="1">
-        <v>2E-3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4574,22 +4577,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C64">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>113</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
         <v>10</v>
       </c>
-      <c r="D64">
-        <v>86</v>
-      </c>
-      <c r="E64">
-        <v>8.6</v>
-      </c>
-      <c r="F64">
-        <v>43</v>
-      </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4613,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>9.8000000000000007</v>
+        <v>12.5</v>
       </c>
       <c r="Q64">
-        <v>4.9000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="R64" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4630,19 +4633,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E65">
-        <v>4.9000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="F65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4651,16 +4654,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4669,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>9.4</v>
+        <v>11.3</v>
       </c>
       <c r="Q65">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R65" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4686,55 +4689,55 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>2.4</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>4</v>
       </c>
-      <c r="D66">
-        <v>16</v>
-      </c>
-      <c r="E66">
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>41</v>
+      </c>
+      <c r="L66">
+        <v>10.3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <v>4</v>
       </c>
-      <c r="F66">
-        <v>15</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>7</v>
-      </c>
-      <c r="L66">
-        <v>7</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>3</v>
-      </c>
       <c r="P66">
-        <v>9.3000000000000007</v>
+        <v>11</v>
       </c>
       <c r="Q66">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R66" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4742,19 +4745,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D67">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E67">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4763,34 +4766,34 @@
         <v>0</v>
       </c>
       <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>16</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67">
-        <v>2</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>3</v>
-      </c>
       <c r="P67">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="R67" s="1">
-        <v>0.63100000000000001</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4798,37 +4801,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="F68">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>1</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4837,16 +4840,16 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>8.1999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="Q68">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R68" s="1">
-        <v>9.4E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4854,25 +4857,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -4881,10 +4884,10 @@
         <v>2</v>
       </c>
       <c r="K69">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4896,13 +4899,13 @@
         <v>3</v>
       </c>
       <c r="P69">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="Q69">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R69" s="1">
-        <v>1.9E-2</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4910,55 +4913,55 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D70">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E70">
-        <v>2.9</v>
+        <v>7.8</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>-2</v>
+      </c>
+      <c r="L70">
+        <v>-0.7</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>9</v>
-      </c>
-      <c r="L70">
-        <v>9</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="Q70">
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="R70" s="1">
-        <v>7.2999999999999995E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4966,19 +4969,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E71">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4987,34 +4990,34 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>5</v>
       </c>
       <c r="K71">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q71">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R71" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5022,19 +5025,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E72">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -5049,10 +5052,10 @@
         <v>2</v>
       </c>
       <c r="K72">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -5061,16 +5064,16 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>6.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
       </c>
       <c r="R72" s="1">
-        <v>0.32900000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5078,19 +5081,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -5099,16 +5102,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -5117,16 +5120,16 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R73" s="1">
-        <v>1E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5137,16 +5140,16 @@
         <v>62</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -5158,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74">
         <v>22</v>
@@ -5173,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="R74" s="1">
         <v>0.02</v>
@@ -5190,55 +5193,55 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>1.7</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>30</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <v>2</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0.5</v>
-      </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-      <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75">
-        <v>14</v>
-      </c>
-      <c r="L75">
-        <v>3.5</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>3</v>
-      </c>
       <c r="P75">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q75">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="R75" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5246,19 +5249,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E76">
-        <v>1.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -5267,34 +5270,34 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
         <v>4</v>
       </c>
-      <c r="K76">
-        <v>16</v>
-      </c>
-      <c r="L76">
-        <v>5.3</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
       <c r="P76">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="Q76">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="R76" s="1">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5302,19 +5305,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5323,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -5344,13 +5347,13 @@
         <v>4</v>
       </c>
       <c r="P77">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="Q77">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R77" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5358,55 +5361,55 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
         <v>6</v>
       </c>
-      <c r="D78">
-        <v>9</v>
-      </c>
-      <c r="E78">
+      <c r="Q78">
         <v>1.5</v>
       </c>
-      <c r="F78">
-        <v>6</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>3</v>
-      </c>
-      <c r="K78">
-        <v>10</v>
-      </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
-        <v>3.9</v>
-      </c>
-      <c r="Q78">
-        <v>3.9</v>
-      </c>
       <c r="R78" s="1">
-        <v>0.79100000000000004</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5414,19 +5417,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5435,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -5453,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="R79" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5470,37 +5473,37 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1.6</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
         <v>4</v>
       </c>
-      <c r="D80">
-        <v>25</v>
-      </c>
-      <c r="E80">
-        <v>6.3</v>
-      </c>
-      <c r="F80">
-        <v>12</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
       <c r="K80">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5509,16 +5512,16 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="Q80">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="R80" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5526,19 +5529,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -5547,16 +5550,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -5565,16 +5568,16 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P81">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="Q81">
         <v>1.4</v>
       </c>
       <c r="R81" s="1">
-        <v>0.28599999999999998</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5582,55 +5585,55 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E82">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <v>3</v>
       </c>
-      <c r="L82">
-        <v>3</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
       <c r="P82">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="Q82">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="R82" s="1">
-        <v>0.09</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5638,19 +5641,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5659,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K83">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5677,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P83">
-        <v>2.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q83">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="R83" s="1">
         <v>1E-3</v>
@@ -5694,19 +5697,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -5718,13 +5721,13 @@
         <v>2</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5733,16 +5736,16 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P84">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q84">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="R84" s="1">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5750,55 +5753,55 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>38</v>
+      </c>
+      <c r="E85">
+        <v>4.2</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>1</v>
       </c>
-      <c r="D85">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
         <v>3</v>
       </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
       <c r="P85">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="R85" s="1">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5806,37 +5809,37 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
         <v>7</v>
       </c>
-      <c r="D86">
-        <v>21</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86">
-        <v>9</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
       <c r="L86">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -5845,16 +5848,16 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q86">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="R86" s="1">
-        <v>0.11700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5862,19 +5865,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -5883,16 +5886,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5901,16 +5904,16 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R87" s="1">
-        <v>2.4E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5918,37 +5921,37 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>2.5</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
         <v>3</v>
       </c>
-      <c r="D88">
-        <v>16</v>
-      </c>
-      <c r="E88">
-        <v>5.3</v>
-      </c>
-      <c r="F88">
-        <v>6</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
       <c r="L88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -5957,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P88">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="R88" s="1">
-        <v>1E-3</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5974,16 +5977,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -6013,16 +6016,16 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="R89" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6030,19 +6033,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -6051,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -6069,16 +6072,16 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q90">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="R90" s="1">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6086,19 +6089,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -6107,16 +6110,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -6125,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q91">
         <v>0.6</v>
@@ -6142,19 +6145,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -6184,13 +6187,13 @@
         <v>1</v>
       </c>
       <c r="P92">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="Q92">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="R92" s="1">
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6198,19 +6201,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -6219,31 +6222,31 @@
         <v>0</v>
       </c>
       <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
         <v>2</v>
       </c>
-      <c r="J93">
-        <v>2</v>
-      </c>
-      <c r="K93">
-        <v>11</v>
-      </c>
-      <c r="L93">
-        <v>5.5</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
       <c r="P93">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="Q93">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R93" s="1">
         <v>1E-3</v>
@@ -6254,19 +6257,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -6293,16 +6296,16 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P94">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q94">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="R94" s="1">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6310,55 +6313,55 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
         <v>3</v>
       </c>
-      <c r="D95">
-        <v>11</v>
-      </c>
-      <c r="E95">
-        <v>3.7</v>
-      </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>2</v>
-      </c>
       <c r="P95">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Q95">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="R95" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6366,19 +6369,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E96">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -6405,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q96">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="R96" s="1">
         <v>0</v>
@@ -6422,16 +6425,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -6464,13 +6467,13 @@
         <v>3</v>
       </c>
       <c r="P97">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q97">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R97" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6478,16 +6481,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -6499,34 +6502,34 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P98">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q98">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R98" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6534,55 +6537,55 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E99">
+        <v>3.7</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
         <v>2</v>
       </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
       <c r="P99">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q99">
         <v>0.6</v>
       </c>
       <c r="R99" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6590,52 +6593,52 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>11</v>
+      </c>
+      <c r="L100">
+        <v>5.5</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
         <v>1</v>
       </c>
-      <c r="D100">
+      <c r="O100">
         <v>4</v>
       </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100">
-        <v>4</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>3</v>
-      </c>
       <c r="P100">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q100">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R100" s="1">
         <v>1E-3</v>
@@ -6646,19 +6649,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -6688,10 +6691,10 @@
         <v>1</v>
       </c>
       <c r="P101">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Q101">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -6702,55 +6705,55 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>1.8</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102">
-        <v>2</v>
-      </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P102">
+        <v>0.6</v>
+      </c>
+      <c r="Q102">
         <v>0.2</v>
       </c>
-      <c r="Q102">
-        <v>0.1</v>
-      </c>
       <c r="R102" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6758,55 +6761,55 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
         <v>1</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
       <c r="P103">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R103" s="1">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6814,19 +6817,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -6853,13 +6856,13 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R104" s="1">
         <v>0</v>
@@ -6870,19 +6873,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -6909,13 +6912,13 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R105" s="1">
         <v>0</v>
@@ -6926,19 +6929,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -6965,16 +6968,16 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R106" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6982,7 +6985,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -7030,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="R107" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7038,7 +7041,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -7086,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="R108" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7094,7 +7097,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -7133,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -7142,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="R109" s="1">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7150,7 +7153,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -7206,7 +7209,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -7245,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7254,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="R111" s="1">
-        <v>2E-3</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7262,7 +7265,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -7301,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7318,7 +7321,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -7357,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7366,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="R113" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7374,7 +7377,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -7413,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -7422,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="R114" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7430,7 +7433,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -7486,7 +7489,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -7534,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="R116" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7542,7 +7545,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -7581,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7598,7 +7601,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -7637,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7646,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="R118" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7654,7 +7657,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -7693,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -7702,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="R119" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7710,7 +7713,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -7758,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="R120" s="1">
-        <v>7.8E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7766,7 +7769,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7805,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -7814,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="R121" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7822,7 +7825,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7878,7 +7881,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7917,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -7926,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7934,7 +7937,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7990,7 +7993,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -8029,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8038,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="R125" s="1">
-        <v>0</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8046,7 +8049,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -8094,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="R126" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8102,7 +8105,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -8158,7 +8161,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -8197,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8206,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="R128" s="1">
-        <v>2E-3</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8214,7 +8217,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -8262,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8270,7 +8273,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -8318,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="R130" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8326,7 +8329,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -8374,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8382,7 +8385,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -8430,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="R132" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8438,7 +8441,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -8486,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8494,7 +8497,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -8550,7 +8553,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -8598,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="R135" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8606,7 +8609,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -8662,7 +8665,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -8718,7 +8721,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -8774,7 +8777,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -8822,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8830,7 +8833,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -8878,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="R140" s="1">
-        <v>0.65900000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8886,7 +8889,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -8925,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="O141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -8934,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8942,7 +8945,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -8990,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="R142" s="1">
-        <v>0</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8998,7 +9001,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -9037,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -9054,7 +9057,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -9110,7 +9113,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -9166,7 +9169,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -9222,7 +9225,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -9278,7 +9281,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -9334,7 +9337,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -9390,7 +9393,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -9446,7 +9449,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -9502,7 +9505,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -9558,7 +9561,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -9582,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -9597,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -9606,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="R153" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9614,7 +9617,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -9635,16 +9638,16 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -9653,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -9670,7 +9673,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -9718,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="R155" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9726,7 +9729,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -9765,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -9774,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="R156" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9782,7 +9785,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -9838,7 +9841,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -9894,7 +9897,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -9950,7 +9953,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -10054,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="R161" s="1">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -10118,7 +10121,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -10174,7 +10177,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -10222,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="R164" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10230,7 +10233,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -10269,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -10278,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="R165" s="1">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10286,7 +10289,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -10325,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -10334,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="R166" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10342,7 +10345,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -10381,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -10398,7 +10401,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -10422,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -10437,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -10454,19 +10457,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -10475,25 +10478,25 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>1</v>
       </c>
       <c r="K169">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
       <c r="N169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -10502,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="R169" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10510,19 +10513,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -10531,25 +10534,25 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M170">
         <v>0</v>
       </c>
       <c r="N170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -10558,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="R170" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10566,7 +10569,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -10622,7 +10625,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -10678,7 +10681,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -10734,7 +10737,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -10773,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -10790,7 +10793,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -10829,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -10838,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="R175" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10846,7 +10849,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -10902,7 +10905,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -10941,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="O177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -10950,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="R177" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10958,7 +10961,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -10997,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -11006,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="R178" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -11014,7 +11017,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -11053,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -11062,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="R179" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -11070,7 +11073,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -11126,7 +11129,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -11182,7 +11185,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -11238,7 +11241,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -11294,7 +11297,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -11350,7 +11353,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -11406,7 +11409,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -11462,7 +11465,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -11518,7 +11521,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -11574,7 +11577,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -11622,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="R189" s="1">
-        <v>0.27800000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11630,7 +11633,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -11678,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="R190" s="1">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11686,7 +11689,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -11734,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="R191" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11742,7 +11745,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -11790,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="R192" s="1">
-        <v>2E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11798,7 +11801,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -11846,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="R193" s="1">
-        <v>0.77400000000000002</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11854,7 +11857,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -11902,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="R194" s="1">
-        <v>1E-3</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11910,7 +11913,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -11934,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -11949,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="O195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -11966,7 +11969,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -12078,7 +12081,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -12134,7 +12137,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -12190,7 +12193,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -12246,54 +12249,110 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>19</v>
+      </c>
+      <c r="E201">
+        <v>2.7</v>
+      </c>
+      <c r="F201">
+        <v>6</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
         <v>1</v>
       </c>
-      <c r="D201">
+      <c r="O201">
+        <v>4</v>
+      </c>
+      <c r="P201">
+        <v>-0.1</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>185</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
         <v>-3</v>
       </c>
-      <c r="E201">
+      <c r="E202">
         <v>-3</v>
       </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>0</v>
-      </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="M201">
-        <v>0</v>
-      </c>
-      <c r="N201">
-        <v>0</v>
-      </c>
-      <c r="O201">
-        <v>2</v>
-      </c>
-      <c r="P201">
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>3</v>
+      </c>
+      <c r="P202">
         <v>-0.3</v>
       </c>
-      <c r="Q201">
-        <v>-0.2</v>
-      </c>
-      <c r="R201" s="1">
+      <c r="Q202">
+        <v>-0.1</v>
+      </c>
+      <c r="R202" s="1">
         <v>0</v>
       </c>
     </row>

--- a/RB/2024/RB_Data_2024.xlsx
+++ b/RB/2024/RB_Data_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claritypartners-my.sharepoint.com/personal/m_tangonan_claritypartners_com/Documents/Personal/Fantasy Football/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EA342FA0-A46A-4B10-8C1D-F8E017AEA6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFADA74F-3F9D-47B5-A5B0-44DAB87A0B15}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EA342FA0-A46A-4B10-8C1D-F8E017AEA6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73D47955-2866-4BA3-805A-C6167ECEE18D}"/>
   <bookViews>
-    <workbookView xWindow="-13815" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5FA02958-867E-1744-93F1-52781EB04AD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FA02958-867E-1744-93F1-52781EB04AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,9 +608,6 @@
     <t>Terrell Jennings (NE)</t>
   </si>
   <si>
-    <t>Cam Akers (HOU)</t>
-  </si>
-  <si>
     <t>Samaje Perine (KC)</t>
   </si>
   <si>
@@ -668,15 +665,9 @@
     <t>Dalvin Cook (DAL)</t>
   </si>
   <si>
-    <t>Royce Freeman (CLE)</t>
-  </si>
-  <si>
     <t>La'Mical Perine (PIT)</t>
   </si>
   <si>
-    <t>Salvon Ahmed (DEN)</t>
-  </si>
-  <si>
     <t>Trent Pennix (IND)</t>
   </si>
   <si>
@@ -687,6 +678,15 @@
   </si>
   <si>
     <t>John Kelly Jr. (FA)</t>
+  </si>
+  <si>
+    <t>Cam Akers (MIN)</t>
+  </si>
+  <si>
+    <t>Joshua Kelley (TEN)</t>
+  </si>
+  <si>
+    <t>Salvon Ahmed (IND)</t>
   </si>
 </sst>
 </file>
@@ -1108,13 +1108,13 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D2">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="E2">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F2">
         <v>17</v>
@@ -1123,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="L2">
-        <v>10.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>106.6</v>
+        <v>136.6</v>
       </c>
       <c r="Q2">
-        <v>26.7</v>
+        <v>22.8</v>
       </c>
       <c r="R2" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.99299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1161,37 +1161,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D3">
-        <v>435</v>
+        <v>704</v>
       </c>
       <c r="E3">
+        <v>5.9</v>
+      </c>
+      <c r="F3">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>65</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
       <c r="J3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="L3">
-        <v>7.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>98</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="Q3">
-        <v>24.5</v>
+        <v>22.6</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1217,55 +1217,55 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>92</v>
+      </c>
+      <c r="L4">
+        <v>6.6</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>45</v>
-      </c>
-      <c r="L4">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
       <c r="P4">
-        <v>93.5</v>
+        <v>105.4</v>
       </c>
       <c r="Q4">
-        <v>23.4</v>
+        <v>21.1</v>
       </c>
       <c r="R4" s="1">
-        <v>0.999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1276,52 +1276,52 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="E5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>14</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>71</v>
+      </c>
+      <c r="L5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>68</v>
-      </c>
-      <c r="L5">
-        <v>5.2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>81.599999999999994</v>
+        <v>97.1</v>
       </c>
       <c r="Q5">
-        <v>20.399999999999999</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1329,55 +1329,55 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="E6">
-        <v>4.9000000000000004</v>
+        <v>5.6</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>93</v>
+      </c>
+      <c r="L6">
+        <v>4.2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>57</v>
-      </c>
-      <c r="L6">
-        <v>9.5</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>74.400000000000006</v>
+        <v>95.8</v>
       </c>
       <c r="Q6">
-        <v>18.600000000000001</v>
+        <v>16</v>
       </c>
       <c r="R6" s="1">
-        <v>0.93500000000000005</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1385,55 +1385,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E7">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>204</v>
+      </c>
+      <c r="L7">
+        <v>7.8</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>77</v>
-      </c>
-      <c r="L7">
-        <v>12.8</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
       <c r="P7">
-        <v>72.599999999999994</v>
+        <v>93.4</v>
       </c>
       <c r="Q7">
-        <v>18.2</v>
+        <v>15.6</v>
       </c>
       <c r="R7" s="1">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1441,55 +1441,55 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L8">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>72.400000000000006</v>
+        <v>93.1</v>
       </c>
       <c r="Q8">
-        <v>18.100000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="R8" s="1">
-        <v>0.96599999999999997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1497,55 +1497,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>285</v>
+        <v>609</v>
       </c>
       <c r="E9">
         <v>5.3</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>71.099999999999994</v>
+        <v>92.4</v>
       </c>
       <c r="Q9">
-        <v>17.8</v>
+        <v>15.4</v>
       </c>
       <c r="R9" s="1">
-        <v>0.999</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1553,37 +1553,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="L10">
-        <v>10.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1592,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>69.5</v>
+        <v>90.8</v>
       </c>
       <c r="Q10">
-        <v>17.399999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="R10" s="1">
-        <v>0.95</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1609,55 +1609,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="E11">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>9.4</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>67.2</v>
+        <v>90.5</v>
       </c>
       <c r="Q11">
-        <v>16.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>0.995</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1665,40 +1665,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E12">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="L12">
-        <v>11.8</v>
+        <v>6.5</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>4</v>
       </c>
       <c r="P12">
-        <v>66.3</v>
+        <v>88</v>
       </c>
       <c r="Q12">
-        <v>16.600000000000001</v>
+        <v>22</v>
       </c>
       <c r="R12" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1721,37 +1721,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="E13">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F13">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
         <v>13</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>17</v>
-      </c>
       <c r="K13">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L13">
-        <v>7.7</v>
+        <v>11.2</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1760,16 +1760,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>66.099999999999994</v>
+        <v>84.2</v>
       </c>
       <c r="Q13">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="R13" s="1">
-        <v>0.77200000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1777,34 +1777,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="E14">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
         <v>18</v>
       </c>
-      <c r="J14">
-        <v>24</v>
-      </c>
       <c r="K14">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="L14">
         <v>7.4</v>
@@ -1813,19 +1813,19 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>64.8</v>
+        <v>83.2</v>
       </c>
       <c r="Q14">
-        <v>16.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1833,55 +1833,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="E15">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="L15">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>63.5</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="Q15">
-        <v>15.9</v>
+        <v>13.5</v>
       </c>
       <c r="R15" s="1">
-        <v>0.92200000000000004</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1889,55 +1889,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>296</v>
+        <v>438</v>
       </c>
       <c r="E16">
         <v>5.4</v>
       </c>
       <c r="F16">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
         <v>13</v>
       </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
       <c r="K16">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L16">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>63</v>
+        <v>78.8</v>
       </c>
       <c r="Q16">
         <v>15.8</v>
       </c>
       <c r="R16" s="1">
-        <v>0.80600000000000005</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1945,55 +1945,55 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E17">
-        <v>6.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F17">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K17">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="L17">
-        <v>4.4000000000000004</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>60.6</v>
+        <v>78.7</v>
       </c>
       <c r="Q17">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="R17" s="1">
-        <v>0.88900000000000001</v>
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2001,37 +2001,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="E18">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L18">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>60.5</v>
+        <v>77.3</v>
       </c>
       <c r="Q18">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="R18" s="1">
-        <v>0.95199999999999996</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2057,55 +2057,55 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J19">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K19">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="L19">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>58.3</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="Q19">
-        <v>14.6</v>
+        <v>12.8</v>
       </c>
       <c r="R19" s="1">
-        <v>0.91300000000000003</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2113,55 +2113,55 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D20">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="E20">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="F20">
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>16</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
       <c r="J20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K20">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>58.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="Q20">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="R20" s="1">
-        <v>0.86499999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2169,37 +2169,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>224</v>
+        <v>349</v>
       </c>
       <c r="E21">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>12.8</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>4</v>
       </c>
       <c r="P21">
-        <v>56.9</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="Q21">
-        <v>14.2</v>
+        <v>18.2</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2225,55 +2225,55 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>464</v>
+      </c>
+      <c r="E22">
+        <v>4.3</v>
+      </c>
+      <c r="F22">
         <v>34</v>
       </c>
-      <c r="C22">
-        <v>32</v>
-      </c>
-      <c r="D22">
-        <v>183</v>
-      </c>
-      <c r="E22">
-        <v>5.7</v>
-      </c>
-      <c r="F22">
-        <v>28</v>
-      </c>
       <c r="G22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <v>101</v>
+      </c>
+      <c r="L22">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>6</v>
       </c>
-      <c r="J22">
-        <v>8</v>
-      </c>
-      <c r="K22">
-        <v>42</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
       <c r="P22">
-        <v>52.5</v>
+        <v>71.5</v>
       </c>
       <c r="Q22">
-        <v>26.3</v>
+        <v>11.9</v>
       </c>
       <c r="R22" s="1">
-        <v>0.96399999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2281,55 +2281,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="E23">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="F23">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K23">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P23">
-        <v>51.8</v>
+        <v>71.3</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="R23" s="1">
-        <v>0.83</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2337,37 +2337,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D24">
-        <v>161</v>
+        <v>376</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="F24">
         <v>36</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K24">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="L24">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>48.9</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="Q24">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="R24" s="1">
-        <v>0.879</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2393,55 +2393,55 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>56</v>
       </c>
       <c r="D25">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="E25">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="F25">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K25">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="L25">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P25">
-        <v>47.3</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="Q25">
-        <v>11.8</v>
+        <v>14</v>
       </c>
       <c r="R25" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2449,55 +2449,55 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="E26">
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
         <v>18</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="J26">
-        <v>13</v>
-      </c>
       <c r="K26">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>9.6</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P26">
-        <v>47.1</v>
+        <v>69.3</v>
       </c>
       <c r="Q26">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="R26" s="1">
-        <v>0.93899999999999995</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2505,55 +2505,55 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E27">
-        <v>4.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="F27">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J27">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="L27">
-        <v>4.8</v>
+        <v>7.9</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>46.2</v>
+        <v>67</v>
       </c>
       <c r="Q27">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="R27" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2561,55 +2561,55 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="E28">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
         <v>17</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>16</v>
-      </c>
-      <c r="J28">
-        <v>18</v>
-      </c>
       <c r="K28">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="L28">
-        <v>10.1</v>
+        <v>2.8</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>45.7</v>
+        <v>66.3</v>
       </c>
       <c r="Q28">
-        <v>11.4</v>
+        <v>13.3</v>
       </c>
       <c r="R28" s="1">
-        <v>0.156</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2617,55 +2617,55 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="E29">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F29">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K29">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L29">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>43.1</v>
+        <v>65.7</v>
       </c>
       <c r="Q29">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="R29" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2673,37 +2673,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D30">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="E30">
-        <v>5.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L30">
-        <v>11.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2712,16 +2712,16 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>41.7</v>
+        <v>62</v>
       </c>
       <c r="Q30">
-        <v>10.4</v>
+        <v>20.7</v>
       </c>
       <c r="R30" s="1">
-        <v>0.314</v>
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2729,37 +2729,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="E31">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="F31">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K31">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L31">
-        <v>8.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>41.2</v>
+        <v>61.1</v>
       </c>
       <c r="Q31">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R31" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2785,55 +2785,55 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="E32">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>70</v>
+      </c>
+      <c r="L32">
         <v>7</v>
       </c>
-      <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <v>31</v>
-      </c>
-      <c r="L32">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>40.5</v>
+        <v>59.8</v>
       </c>
       <c r="Q32">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="R32" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2841,55 +2841,55 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="E33">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K33">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="L33">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P33">
-        <v>38.799999999999997</v>
+        <v>58.1</v>
       </c>
       <c r="Q33">
         <v>9.6999999999999993</v>
       </c>
       <c r="R33" s="1">
-        <v>0.95199999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2897,55 +2897,55 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="E34">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J34">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K34">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="L34">
-        <v>8.1</v>
+        <v>13.2</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>37.700000000000003</v>
+        <v>57.9</v>
       </c>
       <c r="Q34">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="R34" s="1">
-        <v>0.48199999999999998</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2953,19 +2953,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="E35">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2974,34 +2974,34 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K35">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="L35">
-        <v>8.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>35.799999999999997</v>
+        <v>51.6</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="R35" s="1">
-        <v>0.47399999999999998</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3009,55 +3009,55 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="E36">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="F36">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>171</v>
+      </c>
+      <c r="L36">
+        <v>9.5</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>6</v>
       </c>
-      <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36">
-        <v>34</v>
-      </c>
-      <c r="L36">
-        <v>5.7</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>4</v>
-      </c>
       <c r="P36">
-        <v>35.700000000000003</v>
+        <v>50.6</v>
       </c>
       <c r="Q36">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="R36" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3065,37 +3065,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D37">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="E37">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K37">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L37">
-        <v>13.4</v>
+        <v>7.5</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3104,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P37">
-        <v>35.4</v>
+        <v>48.4</v>
       </c>
       <c r="Q37">
-        <v>11.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R37" s="1">
-        <v>0.76700000000000002</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3121,55 +3121,55 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="E38">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>48</v>
+      </c>
+      <c r="L38">
+        <v>6.9</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>6</v>
       </c>
-      <c r="J38">
+      <c r="P38">
+        <v>48.1</v>
+      </c>
+      <c r="Q38">
         <v>8</v>
       </c>
-      <c r="K38">
-        <v>44</v>
-      </c>
-      <c r="L38">
-        <v>7.3</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="Q38">
-        <v>17.399999999999999</v>
-      </c>
       <c r="R38" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3177,37 +3177,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>208</v>
+      </c>
+      <c r="E39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F39">
         <v>27</v>
       </c>
-      <c r="D39">
-        <v>87</v>
-      </c>
-      <c r="E39">
-        <v>3.2</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>11</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>12</v>
-      </c>
       <c r="J39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K39">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="L39">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3216,16 +3216,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>34.299999999999997</v>
+        <v>47.7</v>
       </c>
       <c r="Q39">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="R39" s="1">
-        <v>0.66400000000000003</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3233,55 +3233,55 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F40">
+        <v>43</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
         <v>11</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>7</v>
-      </c>
-      <c r="J40">
-        <v>8</v>
-      </c>
       <c r="K40">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="L40">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>31.9</v>
+        <v>47.3</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="R40" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3289,55 +3289,55 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="E41">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="L41">
-        <v>6.7</v>
+        <v>28</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P41">
-        <v>30.9</v>
+        <v>45.5</v>
       </c>
       <c r="Q41">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="R41" s="1">
-        <v>0.76500000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3348,34 +3348,34 @@
         <v>54</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="E42">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="F42">
         <v>45</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J42">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K42">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="L42">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P42">
-        <v>30.7</v>
+        <v>44.6</v>
       </c>
       <c r="Q42">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="R42" s="1">
-        <v>0.23</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3401,55 +3401,55 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E43">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J43">
+        <v>13</v>
+      </c>
+      <c r="K43">
+        <v>72</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>6</v>
       </c>
-      <c r="K43">
-        <v>37</v>
-      </c>
-      <c r="L43">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>26.9</v>
+        <v>42.3</v>
       </c>
       <c r="Q43">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="R43" s="1">
-        <v>0.108</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3457,55 +3457,55 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E44">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K44">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>10.3</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>26.3</v>
+        <v>41.3</v>
       </c>
       <c r="Q44">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="R44" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3513,40 +3513,40 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>6</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>9</v>
-      </c>
       <c r="J45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K45">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="L45">
-        <v>10.9</v>
+        <v>9.5</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3555,13 +3555,13 @@
         <v>4</v>
       </c>
       <c r="P45">
-        <v>25.8</v>
+        <v>38.6</v>
       </c>
       <c r="Q45">
-        <v>6.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R45" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3569,16 +3569,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="E46">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <v>18</v>
@@ -3587,37 +3587,37 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>47</v>
+      </c>
+      <c r="L46">
+        <v>7.8</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>6</v>
       </c>
-      <c r="K46">
-        <v>61</v>
-      </c>
-      <c r="L46">
-        <v>15.3</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
       <c r="P46">
-        <v>24.8</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="Q46">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="R46" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3625,19 +3625,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E47">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3646,34 +3646,34 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <v>8</v>
       </c>
       <c r="K47">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="L47">
+        <v>10.4</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>6</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
       <c r="P47">
-        <v>23.7</v>
+        <v>37.5</v>
       </c>
       <c r="Q47">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="R47" s="1">
-        <v>0.58299999999999996</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3681,55 +3681,55 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E48">
-        <v>6.1</v>
+        <v>8.9</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L48">
-        <v>10.7</v>
+        <v>17.5</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P48">
-        <v>22.8</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="Q48">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="R48" s="1">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3737,19 +3737,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E49">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="F49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3758,16 +3758,16 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="L49">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3776,16 +3776,16 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P49">
-        <v>20.8</v>
+        <v>37</v>
       </c>
       <c r="Q49">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="R49" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3793,55 +3793,55 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="E50">
-        <v>7.7</v>
+        <v>3.2</v>
       </c>
       <c r="F50">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K50">
+        <v>28</v>
+      </c>
+      <c r="L50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
         <v>6</v>
       </c>
-      <c r="L50">
-        <v>6</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
       <c r="P50">
-        <v>20.5</v>
+        <v>36.4</v>
       </c>
       <c r="Q50">
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="R50" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3849,55 +3849,55 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>11</v>
+      </c>
+      <c r="J51">
         <v>15</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>7</v>
-      </c>
-      <c r="J51">
-        <v>7</v>
-      </c>
       <c r="K51">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="L51">
-        <v>1.1000000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>20.399999999999999</v>
+        <v>33.9</v>
       </c>
       <c r="Q51">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="R51" s="1">
-        <v>0.255</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3905,37 +3905,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E52">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K52">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="L52">
-        <v>8.3000000000000007</v>
+        <v>7.7</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3944,16 +3944,16 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P52">
-        <v>19</v>
+        <v>31.9</v>
       </c>
       <c r="Q52">
-        <v>4.8</v>
+        <v>16</v>
       </c>
       <c r="R52" s="1">
-        <v>0.36699999999999999</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3961,37 +3961,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="E53">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="L53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -4000,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P53">
-        <v>18.8</v>
+        <v>31.8</v>
       </c>
       <c r="Q53">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
       <c r="R53" s="1">
-        <v>0.193</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4017,37 +4017,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E54">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="F54">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K54">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L54">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>17.899999999999999</v>
+        <v>31.3</v>
       </c>
       <c r="Q54">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="R54" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>0.46300000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4073,28 +4073,28 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="C55">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E55">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <v>7</v>
@@ -4103,25 +4103,25 @@
         <v>16</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>17.8</v>
+        <v>30.3</v>
       </c>
       <c r="Q55">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="R55" s="1">
-        <v>0.74299999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4129,55 +4129,55 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E56">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="F56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K56">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="L56">
-        <v>5.5</v>
+        <v>15.3</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P56">
-        <v>17.7</v>
+        <v>29.7</v>
       </c>
       <c r="Q56">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="R56" s="1">
-        <v>0.372</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4185,19 +4185,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="E57">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4206,16 +4206,16 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L57">
-        <v>5.6</v>
+        <v>10.3</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4224,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P57">
-        <v>17.7</v>
+        <v>29.2</v>
       </c>
       <c r="Q57">
-        <v>4.4000000000000004</v>
+        <v>14.6</v>
       </c>
       <c r="R57" s="1">
-        <v>0.19700000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4241,37 +4241,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D58">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E58">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K58">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L58">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -4280,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P58">
-        <v>17.600000000000001</v>
+        <v>27.1</v>
       </c>
       <c r="Q58">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="R58" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4297,37 +4297,37 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="E59">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="F59">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P59">
-        <v>17.2</v>
+        <v>25.7</v>
       </c>
       <c r="Q59">
         <v>4.3</v>
       </c>
       <c r="R59" s="1">
-        <v>9.7000000000000003E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4356,34 +4356,34 @@
         <v>81</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K60">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L60">
-        <v>11</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4392,16 +4392,16 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P60">
-        <v>14.7</v>
+        <v>25.3</v>
       </c>
       <c r="Q60">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="R60" s="1">
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4409,22 +4409,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4433,14 +4433,14 @@
         <v>6</v>
       </c>
       <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>42</v>
+      </c>
+      <c r="L61">
         <v>7</v>
       </c>
-      <c r="K61">
-        <v>73</v>
-      </c>
-      <c r="L61">
-        <v>12.2</v>
-      </c>
       <c r="M61">
         <v>0</v>
       </c>
@@ -4448,16 +4448,16 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P61">
-        <v>14.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q61">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R61" s="1">
-        <v>1E-3</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4465,55 +4465,55 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E62">
-        <v>9.6</v>
+        <v>6.1</v>
       </c>
       <c r="F62">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J62">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K62">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L62">
-        <v>8.6999999999999993</v>
+        <v>3.7</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P62">
-        <v>13.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q62">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R62" s="1">
-        <v>2E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4521,37 +4521,37 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>103</v>
+      </c>
+      <c r="E63">
+        <v>3.8</v>
+      </c>
+      <c r="F63">
         <v>14</v>
       </c>
-      <c r="D63">
-        <v>54</v>
-      </c>
-      <c r="E63">
-        <v>3.9</v>
-      </c>
-      <c r="F63">
-        <v>11</v>
-      </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K63">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L63">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4560,16 +4560,16 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P63">
-        <v>13.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q63">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="R63" s="1">
-        <v>0.6</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4577,37 +4577,37 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4616,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P64">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Q64">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="R64" s="1">
-        <v>0.46400000000000002</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4633,37 +4633,37 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E65">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L65">
-        <v>6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4672,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P65">
-        <v>11.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q65">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="R65" s="1">
-        <v>0.30499999999999999</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4689,37 +4689,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E66">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J66">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K66">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L66">
-        <v>10.3</v>
+        <v>5.9</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4728,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>11</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Q66">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R66" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4745,38 +4745,38 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E67">
+        <v>3.1</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>39</v>
+      </c>
+      <c r="L67">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>3</v>
-      </c>
-      <c r="K67">
-        <v>16</v>
-      </c>
-      <c r="L67">
-        <v>8</v>
-      </c>
       <c r="M67">
         <v>0</v>
       </c>
@@ -4784,16 +4784,16 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Q67">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="R67" s="1">
-        <v>0.40400000000000003</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4801,55 +4801,55 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E68">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K68">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>10.1</v>
+        <v>17.8</v>
       </c>
       <c r="Q68">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="R68" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4857,55 +4857,55 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K69">
+        <v>34</v>
+      </c>
+      <c r="L69">
+        <v>6.8</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>4</v>
       </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>3</v>
-      </c>
       <c r="P69">
-        <v>10</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Q69">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R69" s="1">
-        <v>0.114</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4913,55 +4913,55 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="F70">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K70">
-        <v>-2</v>
+        <v>91</v>
       </c>
       <c r="L70">
-        <v>-0.7</v>
+        <v>13</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P70">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="Q70">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="R70" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4969,55 +4969,55 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="C71">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
         <v>9</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>5</v>
-      </c>
       <c r="K71">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>4</v>
       </c>
       <c r="P71">
-        <v>8.6999999999999993</v>
+        <v>16.5</v>
       </c>
       <c r="Q71">
-        <v>2.2000000000000002</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R71" s="1">
-        <v>0.53200000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5025,55 +5025,55 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="E72">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <v>2</v>
       </c>
-      <c r="J72">
-        <v>2</v>
-      </c>
-      <c r="K72">
-        <v>14</v>
-      </c>
-      <c r="L72">
-        <v>7</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>4</v>
-      </c>
       <c r="P72">
-        <v>8.3000000000000007</v>
+        <v>16.3</v>
       </c>
       <c r="Q72">
-        <v>2.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R72" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5081,55 +5081,55 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E73">
+        <v>3.6</v>
+      </c>
+      <c r="F73">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
         <v>5</v>
       </c>
-      <c r="F73">
-        <v>14</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
+      <c r="K73">
+        <v>28</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <v>2</v>
       </c>
-      <c r="J73">
-        <v>2</v>
-      </c>
-      <c r="K73">
-        <v>12</v>
-      </c>
-      <c r="L73">
-        <v>6</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>4</v>
-      </c>
       <c r="P73">
-        <v>7.2</v>
+        <v>15.7</v>
       </c>
       <c r="Q73">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="R73" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5137,55 +5137,55 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C74">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>107</v>
+      </c>
+      <c r="E74">
+        <v>3.6</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>12</v>
+      </c>
+      <c r="L74">
+        <v>6</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>17</v>
-      </c>
-      <c r="E74">
-        <v>3.4</v>
-      </c>
-      <c r="F74">
-        <v>9</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-      <c r="J74">
-        <v>5</v>
-      </c>
-      <c r="K74">
-        <v>22</v>
-      </c>
-      <c r="L74">
-        <v>7.3</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>4</v>
-      </c>
       <c r="P74">
-        <v>6.9</v>
+        <v>13.9</v>
       </c>
       <c r="Q74">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="R74" s="1">
-        <v>0.02</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5193,37 +5193,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="E75">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5232,16 +5232,16 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>6.5</v>
+        <v>13.9</v>
       </c>
       <c r="Q75">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R75" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5249,19 +5249,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E76">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -5270,16 +5270,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5288,16 +5288,16 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>6.1</v>
+        <v>13.2</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="R76" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5305,19 +5305,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -5326,34 +5326,34 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P77">
-        <v>6</v>
+        <v>13.1</v>
       </c>
       <c r="Q77">
-        <v>1.5</v>
+        <v>13.1</v>
       </c>
       <c r="R77" s="1">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5361,19 +5361,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5382,16 +5382,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -5403,13 +5403,13 @@
         <v>4</v>
       </c>
       <c r="P78">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="Q78">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="R78" s="1">
-        <v>1E-3</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5417,55 +5417,55 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>6.4</v>
+      </c>
+      <c r="F79">
+        <v>76</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>6</v>
+      </c>
+      <c r="P79">
+        <v>12</v>
+      </c>
+      <c r="Q79">
         <v>2</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0.5</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>4</v>
-      </c>
-      <c r="J79">
-        <v>4</v>
-      </c>
-      <c r="K79">
-        <v>14</v>
-      </c>
-      <c r="L79">
-        <v>3.5</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>4</v>
-      </c>
-      <c r="P79">
-        <v>5.5</v>
-      </c>
-      <c r="Q79">
-        <v>1.4</v>
-      </c>
       <c r="R79" s="1">
-        <v>2E-3</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5476,13 +5476,13 @@
         <v>89</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -5512,13 +5512,13 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>5.4</v>
+        <v>11.7</v>
       </c>
       <c r="Q80">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R80" s="1">
         <v>1E-3</v>
@@ -5529,37 +5529,37 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E81">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -5568,16 +5568,16 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P81">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="Q81">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="R81" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5585,55 +5585,55 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D82">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E82">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P82">
-        <v>5.3</v>
+        <v>9.9</v>
       </c>
       <c r="Q82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R82" s="1">
-        <v>0.109</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5641,55 +5641,55 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E83">
+        <v>7.8</v>
+      </c>
+      <c r="F83">
+        <v>43</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>3</v>
-      </c>
-      <c r="F83">
-        <v>7</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
       </c>
       <c r="J83">
         <v>3</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>4.0999999999999996</v>
+        <v>9.4</v>
       </c>
       <c r="Q83">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="R83" s="1">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5697,55 +5697,55 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>19</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
         <v>6</v>
       </c>
-      <c r="D84">
-        <v>9</v>
-      </c>
-      <c r="E84">
-        <v>1.5</v>
-      </c>
-      <c r="F84">
-        <v>6</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
       <c r="K84">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L84">
+        <v>7.3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
         <v>5</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
       <c r="P84">
-        <v>3.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q84">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="R84" s="1">
-        <v>0.77</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5753,19 +5753,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E85">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F85">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5774,34 +5774,34 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q85">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="R85" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5809,55 +5809,55 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L86">
-        <v>2.2999999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P86">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="Q86">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="R86" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5865,37 +5865,37 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>14</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>2</v>
       </c>
-      <c r="D87">
-        <v>7</v>
-      </c>
-      <c r="E87">
-        <v>3.5</v>
-      </c>
-      <c r="F87">
-        <v>4</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5907,13 +5907,13 @@
         <v>4</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q87">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="R87" s="1">
-        <v>1E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5921,19 +5921,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E88">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5948,28 +5948,28 @@
         <v>1</v>
       </c>
       <c r="K88">
+        <v>8</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
         <v>3</v>
       </c>
-      <c r="L88">
-        <v>3</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="Q88">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="R88" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5977,19 +5977,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E89">
-        <v>3.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5998,10 +5998,10 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -6016,16 +6016,16 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="Q89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R89" s="1">
-        <v>0.255</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6033,7 +6033,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -6054,16 +6054,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -6072,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P90">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R90" s="1">
         <v>1E-3</v>
@@ -6089,19 +6089,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -6128,16 +6128,16 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P91">
-        <v>2.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="R91" s="1">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6145,37 +6145,37 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>2.9</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
         <v>3</v>
       </c>
-      <c r="D92">
-        <v>16</v>
-      </c>
-      <c r="E92">
-        <v>5.3</v>
-      </c>
-      <c r="F92">
-        <v>9</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
       <c r="K92">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -6184,16 +6184,16 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="Q92">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="R92" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6201,55 +6201,55 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>4.3</v>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
         <v>3</v>
       </c>
-      <c r="D93">
-        <v>16</v>
-      </c>
-      <c r="E93">
+      <c r="K93">
+        <v>9</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>6</v>
+      </c>
+      <c r="P93">
         <v>5.3</v>
       </c>
-      <c r="F93">
-        <v>6</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>2</v>
-      </c>
-      <c r="P93">
-        <v>1.6</v>
-      </c>
       <c r="Q93">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R93" s="1">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6257,37 +6257,37 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
         <v>12</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
       <c r="L94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -6296,16 +6296,16 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P94">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="Q94">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="R94" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6313,19 +6313,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -6352,16 +6352,16 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P95">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q95">
         <v>1.2</v>
       </c>
-      <c r="Q95">
-        <v>0.4</v>
-      </c>
       <c r="R95" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6369,31 +6369,31 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>21</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>2</v>
       </c>
-      <c r="D96">
-        <v>11</v>
-      </c>
-      <c r="E96">
-        <v>5.5</v>
-      </c>
-      <c r="F96">
-        <v>10</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -6411,13 +6411,13 @@
         <v>2</v>
       </c>
       <c r="P96">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q96">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="R96" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6425,19 +6425,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="F97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -6446,16 +6446,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -6467,13 +6467,13 @@
         <v>3</v>
       </c>
       <c r="P97">
-        <v>1.1000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="Q97">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="R97" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6481,19 +6481,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -6502,16 +6502,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -6520,16 +6520,16 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R98" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6537,16 +6537,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="F99">
         <v>5</v>
@@ -6558,16 +6558,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -6576,16 +6576,16 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P99">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="R99" s="1">
-        <v>0</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6593,19 +6593,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -6614,34 +6614,34 @@
         <v>0</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
         <v>2</v>
       </c>
-      <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100">
-        <v>11</v>
-      </c>
-      <c r="L100">
-        <v>5.5</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>4</v>
-      </c>
       <c r="P100">
-        <v>1.1000000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="R100" s="1">
-        <v>1E-3</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6649,19 +6649,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E101">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -6688,13 +6688,13 @@
         <v>0</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q101">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="R101" s="1">
         <v>0</v>
@@ -6705,20 +6705,20 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102">
+        <v>22</v>
+      </c>
+      <c r="E102">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F102">
         <v>7</v>
       </c>
-      <c r="E102">
-        <v>1.8</v>
-      </c>
-      <c r="F102">
-        <v>6</v>
-      </c>
       <c r="G102">
         <v>0</v>
       </c>
@@ -6726,34 +6726,34 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P102">
-        <v>0.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q102">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R102" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6761,55 +6761,55 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D103">
+        <v>21</v>
+      </c>
+      <c r="E103">
+        <v>3.5</v>
+      </c>
+      <c r="F103">
         <v>6</v>
       </c>
-      <c r="E103">
-        <v>2</v>
-      </c>
-      <c r="F103">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
         <v>4</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
       <c r="P103">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R103" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6817,19 +6817,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>-0.3</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -6838,16 +6838,16 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M104">
         <v>0</v>
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q104">
         <v>0.5</v>
@@ -6873,55 +6873,55 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>2.8</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
         <v>3</v>
       </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
       <c r="P105">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q105">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="R105" s="1">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6929,55 +6929,55 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>5.3</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
         <v>2</v>
       </c>
-      <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>3</v>
-      </c>
       <c r="P106">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q106">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="R106" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6985,19 +6985,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -7024,16 +7024,16 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R107" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7041,19 +7041,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -7080,13 +7080,13 @@
         <v>0</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R108" s="1">
         <v>0</v>
@@ -7097,19 +7097,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -7136,16 +7136,16 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R109" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7153,19 +7153,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -7192,13 +7192,13 @@
         <v>0</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R110" s="1">
         <v>0</v>
@@ -7209,19 +7209,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -7248,16 +7248,16 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R111" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7265,19 +7265,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -7304,16 +7304,16 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R112" s="1">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7321,19 +7321,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -7360,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R113" s="1">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7377,19 +7377,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -7419,13 +7419,13 @@
         <v>3</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R114" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7433,7 +7433,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="R115" s="1">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7489,7 +7489,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="R116" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7545,7 +7545,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7657,7 +7657,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="R119" s="1">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7713,7 +7713,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="R122" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7881,7 +7881,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="R123" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7937,7 +7937,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="R124" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7993,7 +7993,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="R125" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8049,7 +8049,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="R126" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8105,7 +8105,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -8161,7 +8161,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="R128" s="1">
-        <v>7.8E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8217,7 +8217,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="R129" s="1">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8273,7 +8273,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="R131" s="1">
-        <v>2E-3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8385,7 +8385,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="R132" s="1">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8441,7 +8441,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8497,7 +8497,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="R134" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8553,7 +8553,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -8721,19 +8721,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -8742,25 +8742,25 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
       <c r="N138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8777,7 +8777,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="R139" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8833,7 +8833,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -8889,7 +8889,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="R141" s="1">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8945,7 +8945,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="R142" s="1">
-        <v>0.65500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -9001,7 +9001,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="O143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -9057,7 +9057,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="R145" s="1">
-        <v>0</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9169,7 +9169,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -9281,7 +9281,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -9505,7 +9505,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="R154" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9673,7 +9673,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="R155" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9729,7 +9729,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -9750,16 +9750,16 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="R156" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9785,7 +9785,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -9841,7 +9841,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="R158" s="1">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9897,7 +9897,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="R159" s="1">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9953,7 +9953,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="R160" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -10009,7 +10009,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="R161" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -10065,7 +10065,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="R163" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="R164" s="1">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10233,7 +10233,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="R165" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10289,7 +10289,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R168" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10457,7 +10457,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -10513,19 +10513,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -10534,22 +10534,22 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M170">
         <v>0</v>
       </c>
       <c r="N170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O170">
         <v>1</v>
@@ -10569,7 +10569,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -10625,7 +10625,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="O172">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -10681,7 +10681,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -10737,7 +10737,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="O174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="O176">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="R176" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10905,7 +10905,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="O178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="R178" s="1">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -11017,7 +11017,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="O179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="R179" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -11073,7 +11073,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -11129,7 +11129,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="O181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -11177,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="R181" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -11185,7 +11185,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -11465,7 +11465,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -11577,7 +11577,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -11633,7 +11633,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="R191" s="1">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11745,7 +11745,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="R192" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11801,7 +11801,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="R193" s="1">
-        <v>2E-3</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11857,7 +11857,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="R194" s="1">
-        <v>0.78</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11913,7 +11913,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -12025,7 +12025,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="R197" s="1">
-        <v>1E-3</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -12081,7 +12081,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="R198" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -12137,7 +12137,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -12249,19 +12249,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="C201">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D201">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E201">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -12285,19 +12285,19 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O201">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P201">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Q201">
         <v>0</v>
       </c>
       <c r="R201" s="1">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -12305,16 +12305,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -12341,19 +12341,19 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P202">
-        <v>-0.3</v>
+        <v>-2</v>
       </c>
       <c r="Q202">
-        <v>-0.1</v>
+        <v>-2</v>
       </c>
       <c r="R202" s="1">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
     </row>
   </sheetData>
